--- a/Jogos_do_Dia/2022-12-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="V2" t="n">
         <v>1.79</v>
@@ -695,28 +695,28 @@
         <v>3.37</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>1.64</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="I7" t="n">
         <v>1.06</v>
@@ -1203,10 +1203,10 @@
         <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I8" t="n">
         <v>1.06</v>
@@ -1313,10 +1313,10 @@
         <v>2.4</v>
       </c>
       <c r="M8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.57</v>

--- a/Jogos_do_Dia/2022-12-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,37 +632,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G2" t="n">
-        <v>4.38</v>
+        <v>3.55</v>
       </c>
       <c r="H2" t="n">
-        <v>5.05</v>
+        <v>4.05</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="N2" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="Q2" t="n">
         <v>1.8</v>
@@ -695,13 +695,13 @@
         <v>3.37</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="AD2" t="n">
         <v>1.31</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.72</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -805,28 +805,28 @@
         <v>2.18</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4">
@@ -855,22 +855,22 @@
         <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
         <v>4.33</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.8</v>
@@ -879,10 +879,10 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="Q4" t="n">
         <v>1.75</v>
@@ -915,28 +915,28 @@
         <v>2.64</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="5">
@@ -962,25 +962,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="n">
         <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.8</v>
@@ -989,10 +989,10 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="Q5" t="n">
         <v>1.67</v>
@@ -1001,13 +1001,13 @@
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V5" t="n">
         <v>2</v>
@@ -1025,28 +1025,28 @@
         <v>3.03</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="6">
@@ -1072,37 +1072,37 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.2</v>
+        <v>4.15</v>
       </c>
       <c r="G6" t="n">
-        <v>3.96</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="N6" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>1.8</v>
@@ -1111,13 +1111,13 @@
         <v>1.95</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V6" t="n">
         <v>1.79</v>
@@ -1135,28 +1135,28 @@
         <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="7">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G7" t="n">
-        <v>4.25</v>
+        <v>4.55</v>
       </c>
       <c r="H7" t="n">
-        <v>9.5</v>
+        <v>8.1</v>
       </c>
       <c r="I7" t="n">
         <v>1.06</v>
@@ -1203,10 +1203,10 @@
         <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="N7" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="G8" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>1.06</v>
